--- a/Other_workbooks/axon_anatomy_population_analysis.xlsx
+++ b/Other_workbooks/axon_anatomy_population_analysis.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="205">
   <si>
     <t>layered_cellFillData_p5s1crop251pt19</t>
   </si>
@@ -526,6 +526,123 @@
   </si>
   <si>
     <t>layered_cellFillData_IM171201_B_10X_P3S1_LM_crop</t>
+  </si>
+  <si>
+    <t>IM171201_A</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S4_AL_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S5_AL_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S6_AL_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S7_AL_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S1_AM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S2_AM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S3_AM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P4S4_AM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S3_LI_crop</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S4_LI_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S5_LI_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S6_LI_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S7_LM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P2S8_LM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S1_LM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S2_LM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S4_PM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S5_PM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S6_PM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM171201_10X_P3S7_PM_crop</t>
+  </si>
+  <si>
+    <t>IM180114_B</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S1_AL_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S2_AL_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S3_AL_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S4_AL_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P4S8_AM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S1_AM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S2_AM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P5S3_AM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P3S2_LM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P3S3_LM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P3S4_LM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P3S5_LM_crop</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P4S4_PM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P4S5_PM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P4S6_PM_CROP</t>
+  </si>
+  <si>
+    <t>layered_cellFillData_IM180114_10X_P4S7_PM_CROP</t>
   </si>
 </sst>
 </file>
@@ -978,11 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q129"/>
+  <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M132" sqref="M132"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6781,6 +6898,834 @@
         <v>121</v>
       </c>
       <c r="Q129" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P130" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q130" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O131" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P131" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q131" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O132" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P132" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q132" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q133" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P134" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q134" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O135" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P135" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q135" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P136" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q136" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q137" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N138" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q138" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q139" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P140" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q140" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P141" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q141" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q142" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q143" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q144" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q145" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q146" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P147" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q147" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P148" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q148" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P149" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q149" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P150" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q150" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P151" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q151" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P152" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q152" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P153" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q153" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P154" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q154" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P155" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q155" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N156" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P156" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q156" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P157" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q157" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O158" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P158" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q158" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O159" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P159" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q159" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q160" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q161" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q162" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q163" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N164" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O164" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q164" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P165" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q165" s="6" t="b">
         <v>1</v>
       </c>
     </row>
